--- a/SMMRT_Final.xlsx
+++ b/SMMRT_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R stuff\smaig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R stuff\smaig-v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E7E3B-DEF0-4974-B763-265164081DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B335A1B-B342-4B01-B358-A82A1A16A854}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{283E2266-93BA-3B44-86D6-1E23F9B29820}"/>
+    <workbookView xWindow="-19665" yWindow="2955" windowWidth="16695" windowHeight="11415" xr2:uid="{283E2266-93BA-3B44-86D6-1E23F9B29820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF003C6-0652-E742-8760-39EAC8CD1815}">
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -850,7 +852,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>0</v>
